--- a/biology/Zoologie/Crotalus_pricei/Crotalus_pricei.xlsx
+++ b/biology/Zoologie/Crotalus_pricei/Crotalus_pricei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus pricei est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus pricei est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre en Aridamérique[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre en Aridamérique :
 aux États-Unis dans le sud-est de l'Arizona ;
 au Mexique dans l'ouest du Sonora, dans l'est du Chihuahua, dans l'Ouest du Durango, dans le sud-est du Coahuila, dans le sud du Nuevo León, dans le sud-ouest du Tamaulipas et dans l’État d'Aguascalientes.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent venimeux vivipare atteint environ 50 à 60 cm. La couleur de base est le gris tirant parfois sur le bleu ou le brun voire le rouge, avec des taches sur le dos. Une ligne noire part de l'œil pour rejoindre la nuque.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Crotalus pricei pricei Van Denburgh, 1895
 Crotalus pricei miquihuanus Gloyd, 1940</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Wightman Price (1871-1922)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Wightman Price (1871-1922).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gloyd, 1940 : The rattlesnakes genera Sistrurus and Crotalus a study in Zoogeography and Evolution. Chicago Academy of Sciences, vol. 4, p. 1-266.
 Van Denburgh, 1895 : Description of a new rattlesnake (Crotalus pricei) from Arizona. Proceedings of the California Academy of Sciences, sér. 2, vol. 5, p. 856-857.</t>
